--- a/LE2 Simulation and Analysis/Regen_Dev/Regen_Scratch.xlsx
+++ b/LE2 Simulation and Analysis/Regen_Dev/Regen_Scratch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liams\Documents\GitHub\LE2\LE2 Simulation and Analysis\Regen_Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5BD7ED-9553-4FFB-B258-99D84E4B4828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10572A91-934D-4E0E-B1D2-0AC22DCA7C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="2" activeTab="2" xr2:uid="{BDA5EE9C-EFCA-48BE-A594-2BB1FEEB921A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{BDA5EE9C-EFCA-48BE-A594-2BB1FEEB921A}"/>
   </bookViews>
   <sheets>
     <sheet name="Varible Descriptions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>Major Variables</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Beta = (Pr_c/Pr_wc)^0.25</t>
-  </si>
-  <si>
-    <t>h_c</t>
   </si>
   <si>
     <t>[W/(m2K)]</t>
@@ -578,9 +575,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -618,7 +615,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -724,7 +721,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -866,7 +863,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -876,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98F4494-02D5-4DB7-A39C-AB8814FEC113}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1056,32 +1053,32 @@
     </row>
     <row r="21" spans="1:5" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4"/>
     </row>
@@ -1126,125 +1123,125 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>52</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
         <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
         <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
         <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
         <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
         <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
         <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1252,42 +1249,42 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F13" t="s">
         <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
         <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
         <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <v>70</v>
@@ -1295,7 +1292,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20">
         <v>140</v>
@@ -1303,7 +1300,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21">
         <v>2600</v>
@@ -1311,7 +1308,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22">
         <v>35</v>
@@ -1319,7 +1316,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -1327,7 +1324,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25">
         <v>3300</v>
@@ -1343,7 +1340,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26">
         <v>60</v>
@@ -1351,7 +1348,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27">
         <v>55</v>
@@ -1359,7 +1356,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28">
         <v>1500</v>
@@ -1378,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2424505C-A57F-459B-AAB9-6018A3D7DE14}">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1394,45 +1391,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>95</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>97</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>98</v>
       </c>
-      <c r="K1" t="s">
-        <v>99</v>
-      </c>
       <c r="L1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2284,7 +2281,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52">
         <f>B51+('Computation IO'!$B$20/50)</f>
@@ -2304,7 +2301,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53">
         <f>B52+('Computation IO'!$B$22/25)</f>
@@ -2732,7 +2729,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78">
         <f>B77+'Computation IO'!$B$24/10</f>
@@ -2888,7 +2885,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B87">
         <f>B86+'Computation IO'!$B$24/10</f>
@@ -2908,7 +2905,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88">
         <f>B87+'Computation IO'!$B$26/25</f>
@@ -3339,7 +3336,7 @@
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
